--- a/spec/fixtures/files/features/forms/show_excel_expected.xlsx
+++ b/spec/fixtures/files/features/forms/show_excel_expected.xlsx
@@ -285,16 +285,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">Placeholder 2</t>
+          <t xml:space="preserve">Completion status</t>
         </is>
       </c>
       <c t="inlineStr" r="D4">
         <is>
-          <t xml:space="preserve">Measure with shoes off. Round up or down to the nearest tenth inch or tenth centimeter.</t>
+          <t xml:space="preserve">Compltion Status</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E4">
+        <is>
+          <t xml:space="preserve">string</t>
+        </is>
+      </c>
+      <c r="F4" s="65">
+        <v>1</v>
+      </c>
+      <c t="inlineStr" r="G4">
+        <is>
+          <t xml:space="preserve">VSSTAT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J4">
+        <is>
+          <t xml:space="preserve">NOT DONE C49484 (ND C66789 v13.0.0)</t>
         </is>
       </c>
     </row>
@@ -303,29 +321,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">Height</t>
+          <t xml:space="preserve">Placeholder 2</t>
         </is>
       </c>
       <c t="inlineStr" r="D5">
         <is>
-          <t xml:space="preserve">Height</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="E5">
-        <is>
-          <t xml:space="preserve">float</t>
-        </is>
-      </c>
-      <c t="n" r="F5">
-        <v>5.1</v>
-      </c>
-      <c t="inlineStr" r="G5">
-        <is>
-          <t xml:space="preserve">VSORRES</t>
+          <t xml:space="preserve">Measure with shoes off. Round up or down to the nearest tenth inch or tenth centimeter.</t>
         </is>
       </c>
     </row>
@@ -334,34 +339,29 @@
         <v>4</v>
       </c>
       <c r="B6" s="65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">Unit</t>
+          <t xml:space="preserve">Height</t>
         </is>
       </c>
       <c t="inlineStr" r="D6">
         <is>
-          <t xml:space="preserve">Unit</t>
+          <t xml:space="preserve">Height</t>
         </is>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">string</t>
-        </is>
-      </c>
-      <c r="F6" s="65">
-        <v>20</v>
+          <t xml:space="preserve">float</t>
+        </is>
+      </c>
+      <c t="n" r="F6">
+        <v>5.1</v>
       </c>
       <c t="inlineStr" r="G6">
         <is>
-          <t xml:space="preserve">VSORRESU</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="J6">
-        <is>
-          <t xml:space="preserve">IN (Code List: C66770 v59.0.0) cm (Code List: C66770 v59.0.0)</t>
+          <t xml:space="preserve">VSORRES</t>
         </is>
       </c>
     </row>
@@ -370,16 +370,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">Completion status</t>
+          <t xml:space="preserve">Unit</t>
         </is>
       </c>
       <c t="inlineStr" r="D7">
         <is>
-          <t xml:space="preserve">Compltion Status</t>
+          <t xml:space="preserve">Unit</t>
         </is>
       </c>
       <c t="inlineStr" r="E7">
@@ -388,16 +388,16 @@
         </is>
       </c>
       <c r="F7" s="65">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c t="inlineStr" r="G7">
         <is>
-          <t xml:space="preserve">VSSTAT</t>
+          <t xml:space="preserve">VSORRESU</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
         <is>
-          <t xml:space="preserve">NOT DONE (Code List: C66789 v13.0.0)</t>
+          <t xml:space="preserve">IN C48500 (VSRESU C66770 v59.0.0); cm C49668 (VSRESU C66770 v59.0.0)</t>
         </is>
       </c>
     </row>
